--- a/biology/Zoologie/Astrophorina/Astrophorina.xlsx
+++ b/biology/Zoologie/Astrophorina/Astrophorina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astrophorina forment un sous-ordre d'éponges marines dites « siliceuses » dans l'ordre des Tetractinellida et dans la classe des Demospongiae.
 </t>
@@ -511,11 +523,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ordre Astrophorida est décrit en 1887 par le géologue britannique William Johnson Sollas[1].
-Avec le développement de la systématique moléculaire, il a été possible de vérifier les hypothèses sur l'homologie morphologique et les hypothèses évolutives qui en découlent. Plusieurs d'espèces d'Astrophorida ont été séquencées pour un fragment de l'ADNr 28S. Celles qui ont été examinées présentaient de nombreuses particularités morphologiques et certains de ces caractères ont pu être réévalués d'après les données moléculaires. Les résultats sur l'ordre des Astrophorida sont en contradiction avec la classification historique[2],[3].
-Depuis Morrow &amp; Cárdenas (2015), Astrophorida n'est plus accepté comme un ordre et est devenu un sous-ordre de Tetractinellida sous le nom de Astrophorina[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ordre Astrophorida est décrit en 1887 par le géologue britannique William Johnson Sollas.
+Avec le développement de la systématique moléculaire, il a été possible de vérifier les hypothèses sur l'homologie morphologique et les hypothèses évolutives qui en découlent. Plusieurs d'espèces d'Astrophorida ont été séquencées pour un fragment de l'ADNr 28S. Celles qui ont été examinées présentaient de nombreuses particularités morphologiques et certains de ces caractères ont pu être réévalués d'après les données moléculaires. Les résultats sur l'ordre des Astrophorida sont en contradiction avec la classification historique,.
+Depuis Morrow &amp; Cárdenas (2015), Astrophorida n'est plus accepté comme un ordre et est devenu un sous-ordre de Tetractinellida sous le nom de Astrophorina.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le sous-ordre Astrophorina comprend les familles suivantes, selon le World Register of Marine Species en 2020[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le sous-ordre Astrophorina comprend les familles suivantes, selon le World Register of Marine Species en 2020 :
 Ancorinidae Schmidt, 1870
 Calthropellidae Lendenfeld, 1907
 Corallistidae Sollas, 1888
